--- a/OrangeHRM_Automation/src/main/java/com/orangehrm/testdata/LoginData.xlsx
+++ b/OrangeHRM_Automation/src/main/java/com/orangehrm/testdata/LoginData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -39,22 +39,16 @@
     <t>lakshmisri@123</t>
   </si>
   <si>
-    <t>Akanksha</t>
-  </si>
-  <si>
-    <t>akanksha@123</t>
-  </si>
-  <si>
     <t>Aliya</t>
   </si>
   <si>
-    <t>aliya@123</t>
-  </si>
-  <si>
-    <t>Dilip</t>
-  </si>
-  <si>
     <t>dilip@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -386,7 +380,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,34 +415,33 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId2" display="akanksha@123"/>
+    <hyperlink ref="B6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
